--- a/data/trans_camb/P54_A_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Estudios-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,94</t>
+          <t>36,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,07</t>
+          <t>36,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,26</t>
+          <t>38,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,04</t>
+          <t>44,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,72</t>
+          <t>37,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,91</t>
+          <t>41,07</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,29; 44,5</t>
+          <t>22,5; 52,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,15; 47,24</t>
+          <t>24,91; 50,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,49; 48,63</t>
+          <t>26,29; 51,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,35; 51,39</t>
+          <t>34,06; 55,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 44,12</t>
+          <t>27,8; 47,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,26; 46,84</t>
+          <t>32,75; 49,77</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>78,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>80,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,04%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>80,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>86,59%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,01; 121,43</t>
+          <t>40,26; 150,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,83; 132,69</t>
+          <t>42,89; 150,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,76; 117,22</t>
+          <t>45,89; 139,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,54; 126,02</t>
+          <t>59,02; 148,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>65,02; 109,81</t>
+          <t>51,25; 121,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>74,33; 116,68</t>
+          <t>59,24; 126,02</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,37</t>
+          <t>39,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,93</t>
+          <t>39,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,57</t>
+          <t>47,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,65</t>
+          <t>49,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,37</t>
+          <t>43,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>43,23</t>
+          <t>44,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,43; 40,81</t>
+          <t>30,48; 48,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,9; 45,18</t>
+          <t>31,67; 47,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,85; 49,31</t>
+          <t>40,49; 53,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>41,87; 50,99</t>
+          <t>42,72; 55,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,05; 43,61</t>
+          <t>37,68; 49,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,25; 46,66</t>
+          <t>39,28; 49,65</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,12%</t>
+          <t>100,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>101,21%</t>
+          <t>101,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>107,29%</t>
+          <t>125,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>112,3%</t>
+          <t>130,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>113,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>106,76%</t>
+          <t>116,27%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,44; 112,75</t>
+          <t>65,3; 142,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,75; 127,2</t>
+          <t>67,32; 142,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,31; 128,47</t>
+          <t>94,98; 165,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>93,17; 133,2</t>
+          <t>98,18; 171,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,81; 114,75</t>
+          <t>87,43; 142,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,03; 122,08</t>
+          <t>90,71; 142,54</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>39,08</t>
+          <t>45,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>42,92</t>
+          <t>46,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>33,03</t>
+          <t>35,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,1</t>
+          <t>42,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,32</t>
+          <t>40,06</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,47</t>
+          <t>44,51</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,4; 46,03</t>
+          <t>36,27; 54,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,87; 49,5</t>
+          <t>37,95; 53,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,12; 39,03</t>
+          <t>27,24; 43,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,98; 44,52</t>
+          <t>34,95; 49,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,54; 41,11</t>
+          <t>33,86; 46,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,34; 46,33</t>
+          <t>38,58; 49,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>141,47%</t>
+          <t>193,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>155,37%</t>
+          <t>197,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>105,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>100,84%</t>
+          <t>122,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>115,13%</t>
+          <t>135,92%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>99,37; 195,0</t>
+          <t>124,76; 302,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>112,61; 207,42</t>
+          <t>128,64; 288,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,94; 94,31</t>
+          <t>59,94; 120,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,46; 108,98</t>
+          <t>73,19; 139,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>81,4; 123,98</t>
+          <t>92,32; 161,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,59; 140,85</t>
+          <t>106,64; 173,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,56</t>
+          <t>33,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>40,64</t>
+          <t>39,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,49</t>
+          <t>40,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44,24</t>
+          <t>42,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,12</t>
+          <t>36,63</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>42,57</t>
+          <t>41,08</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,52; 39,92</t>
+          <t>26,82; 39,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36,63; 44,5</t>
+          <t>33,36; 46,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37,06; 43,61</t>
+          <t>35,53; 45,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41,01; 47,24</t>
+          <t>37,7; 47,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,34; 41,16</t>
+          <t>32,0; 40,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,27; 45,24</t>
+          <t>36,86; 45,36</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>111,79%</t>
+          <t>106,83%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>101,71%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>88,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>106,62%</t>
+          <t>99,17%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,27; 118,63</t>
+          <t>67,45; 114,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>93,35; 132,58</t>
+          <t>81,47; 134,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>80,82; 105,84</t>
+          <t>72,68; 106,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,15; 115,94</t>
+          <t>77,31; 110,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>84,95; 107,3</t>
+          <t>73,24; 102,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>96,49; 118,98</t>
+          <t>86,01; 115,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>37,18</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>40,52</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>40,49</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>44,08</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>38,93</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>42,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>33,11; 41,39</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>36,67; 44,16</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>36,83; 44,0</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>40,83; 47,29</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>36,07; 41,6</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39,91; 44,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>102,17%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>111,36%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>93,28%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>101,57%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>97,6%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>106,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>85,59; 121,57</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>93,33; 129,57</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>80,94; 107,09</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>89,43; 116,14</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>87,24; 108,36</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>95,34; 117,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P54_A_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_6_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>36,44</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>36,74</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>38,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>44,48</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>37,95</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>41,07</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>36.28989306422935</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>36.66114785778991</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>40.30253706875991</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>44.23133433884467</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>38.66937566544795</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>40.94891142564101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>22,5; 52,14</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>24,91; 50,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>26,29; 51,61</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>34,06; 55,96</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>27,8; 47,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>32,75; 49,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>22.84700513228626</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>24.62890581872572</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>28.31837159235035</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>33.76075040494138</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>29.89895027473233</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>32.66481209594356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>78,11%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>78,77%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>80,71%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>92,19%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>80,01%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>86,59%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>51.62196001325778</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>50.66457609674774</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>53.02633495955347</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>55.69455162418482</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>47.68623275762386</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>49.64830691457552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>40,26; 150,28</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>42,89; 150,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>45,89; 139,71</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>59,02; 148,83</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>51,25; 121,02</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>59,24; 126,02</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.7779651407141077</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.7859239210610751</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.8352862070473577</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.9167121025037226</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.815299835416709</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.8633612560662417</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>39,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>39,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>47,62</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>49,36</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>43,61</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>44,64</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.4196316063882077</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.4298976441447642</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.4831993130759029</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.5892448651599412</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.5507194576211598</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.5933644526358316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>30,48; 48,03</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>31,67; 47,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>40,49; 53,71</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>42,72; 55,71</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>37,68; 49,02</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>39,28; 49,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.513743566146449</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.505676021626744</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.40296971885495</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.483990008533941</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.209614409521424</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.257432891849449</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>100,92%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>101,82%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>125,87%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>130,48%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>113,58%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>116,27%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>39.08491701931086</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>39.59890201178368</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>48.1681137279668</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>49.41538128130814</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>43.74796577699224</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>44.59019380090156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>65,3; 142,37</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>67,32; 142,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>94,98; 165,54</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>98,18; 171,88</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>87,43; 142,36</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>90,71; 142,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>29.16798309845259</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>30.74134911235434</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>41.21554142284657</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>42.90715786288602</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>37.349790754217</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>39.0532835800072</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>45,34</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>46,48</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>35,64</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>42,96</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>40,06</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>44,51</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>47.50674342129677</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>46.6627089944425</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>54.54327669896688</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>55.92142481898664</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>49.51916553705299</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>49.49554022785856</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>36,27; 54,16</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>37,95; 53,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>27,24; 43,28</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>34,95; 49,78</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>33,86; 46,14</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>38,58; 49,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.001857271430932</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.015032164494178</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.27324461865167</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.306214078682417</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.139396807838968</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.161332271691313</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>193,03%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>197,89%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>87,32%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>105,24%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>122,33%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>135,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.6440837125200042</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.6712415039392087</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.9521898237666001</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.9784697017018938</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.876706668119671</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.9097811025996367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>124,76; 302,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>128,64; 288,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>59,94; 120,31</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>73,19; 139,4</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>92,32; 161,53</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>106,64; 173,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.442152924294335</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.426314671116221</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.666864862194964</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.71593904101966</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.435706326486382</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.428517757810344</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,325 +928,332 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>33,18</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>39,96</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>40,23</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>42,62</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>36,63</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>41,08</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>45.80629722610789</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>46.5072099011795</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>36.16681206349004</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>43.25884319463734</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>40.51101601074578</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>44.68072799034075</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>26,82; 39,29</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>33,36; 46,06</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>35,53; 45,07</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>37,7; 47,25</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>32,0; 40,39</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>36,86; 45,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>36.59465342942593</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>37.71596519849651</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>27.89914506862251</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>35.27261685214919</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>34.36396924424348</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>38.81461339449697</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>88,71%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>106,83%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>87,99%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>93,2%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>88,43%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>99,17%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>54.78876171092983</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>53.777860217929</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>43.25858681759063</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>50.08065244043489</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>46.65248785591846</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>49.97283531158496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>67,45; 114,46</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>81,47; 134,08</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>72,68; 106,54</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>77,31; 110,49</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>73,24; 102,72</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>86,01; 115,61</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.949993691415508</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1.979831844189049</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.8859809249956571</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1.059714907704487</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.237159249129595</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.364497396866843</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>37,18</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>40,52</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>40,49</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>44,08</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>38,93</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>42,42</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.26446852897877</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.28086568905253</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.6126528298840178</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0.7383919703735223</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.930341330019792</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1.070317445452487</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>33,11; 41,39</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>36,67; 44,16</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>36,83; 44,0</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>40,83; 47,29</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>36,07; 41,6</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>39,91; 44,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>3.040336082294536</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.890928007514435</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.221719842059349</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>1.404078403342237</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>1.623227443205961</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.741417966692846</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>102,17%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>111,36%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>93,28%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>101,57%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>97,6%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>106,35%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>40.80457836394849</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>41.85470003066468</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>42.87037387661577</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>46.94013031868521</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>41.88725244387248</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>44.52683537515069</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>85,59; 121,57</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>93,33; 129,57</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>80,94; 107,09</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>89,43; 116,14</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>87,24; 108,36</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>95,34; 117,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>34.41944576285898</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>36.3029731674314</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>37.88665040999679</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>42.39629074977751</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>37.62644005670834</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>41.21035078142848</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>46.67680913157875</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>47.17459401177481</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>47.47984919047836</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>51.26215695246902</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>45.450592349837</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>47.81761261107323</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.171031901194998</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.201168861829474</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.060997212856722</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.161719456485129</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>1.109798711806281</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.179734206877573</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.8824216797077842</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.9119736479381222</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.8602325023027153</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.9588168250254173</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.9306173747239532</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>1.014006822134135</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.501490270081112</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.511124328169699</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.286374188918282</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.388075673596134</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1.294667949847393</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.36431822364424</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
